--- a/dtpu_configurations/only_integer8/50mhz/mxu_10x10/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/50mhz/mxu_10x10/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>18.612783432006836</v>
+        <v>21.8063907623291</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.902298927307129</v>
+        <v>5.896552085876465</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>12.97274398803711</v>
+        <v>15.231202125549316</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>40.90909194946289</v>
